--- a/Code/Results/Cases/Case_3_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_207/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9913988011071383</v>
+        <v>1.028483841947728</v>
       </c>
       <c r="D2">
-        <v>1.014328816108557</v>
+        <v>1.036293159674117</v>
       </c>
       <c r="E2">
-        <v>0.9989195356961204</v>
+        <v>1.028430210264438</v>
       </c>
       <c r="F2">
-        <v>1.014784023935405</v>
+        <v>1.044930503471274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043787987094051</v>
+        <v>1.033052814160182</v>
       </c>
       <c r="J2">
-        <v>1.013839851724792</v>
+        <v>1.033635906682086</v>
       </c>
       <c r="K2">
-        <v>1.025592072827054</v>
+        <v>1.039087315974349</v>
       </c>
       <c r="L2">
-        <v>1.010393943654429</v>
+        <v>1.031247050133502</v>
       </c>
       <c r="M2">
-        <v>1.026041165563955</v>
+        <v>1.047700169207753</v>
       </c>
       <c r="N2">
-        <v>1.008269707646672</v>
+        <v>1.015169284544041</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9971570230750367</v>
+        <v>1.029663487152199</v>
       </c>
       <c r="D3">
-        <v>1.018741432723588</v>
+        <v>1.037204709419734</v>
       </c>
       <c r="E3">
-        <v>1.003598250209359</v>
+        <v>1.029437944682024</v>
       </c>
       <c r="F3">
-        <v>1.020151839475</v>
+        <v>1.046079220387699</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0455298853928</v>
+        <v>1.033306826363643</v>
       </c>
       <c r="J3">
-        <v>1.017725491696554</v>
+        <v>1.034455000956907</v>
       </c>
       <c r="K3">
-        <v>1.029140000343079</v>
+        <v>1.039808166652206</v>
       </c>
       <c r="L3">
-        <v>1.014185296856965</v>
+        <v>1.032062179405888</v>
       </c>
       <c r="M3">
-        <v>1.030533206591828</v>
+        <v>1.048659344620985</v>
       </c>
       <c r="N3">
-        <v>1.009593573953158</v>
+        <v>1.015444788169815</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000790313673577</v>
+        <v>1.030426448082379</v>
       </c>
       <c r="D4">
-        <v>1.021526713036807</v>
+        <v>1.037793898047136</v>
       </c>
       <c r="E4">
-        <v>1.006556968682178</v>
+        <v>1.030090076115165</v>
       </c>
       <c r="F4">
-        <v>1.023543719350443</v>
+        <v>1.046822332074717</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046613454225513</v>
+        <v>1.033469157221069</v>
       </c>
       <c r="J4">
-        <v>1.020173824729309</v>
+        <v>1.03498416772835</v>
       </c>
       <c r="K4">
-        <v>1.031372090485757</v>
+        <v>1.040273334609664</v>
       </c>
       <c r="L4">
-        <v>1.016576895826259</v>
+        <v>1.032589078856522</v>
       </c>
       <c r="M4">
-        <v>1.033366059743688</v>
+        <v>1.049279232802774</v>
       </c>
       <c r="N4">
-        <v>1.010427261700432</v>
+        <v>1.015622654701629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002296551361481</v>
+        <v>1.030747115131232</v>
       </c>
       <c r="D5">
-        <v>1.022681557249067</v>
+        <v>1.038041438964668</v>
       </c>
       <c r="E5">
-        <v>1.007785061375145</v>
+        <v>1.03036424718084</v>
       </c>
       <c r="F5">
-        <v>1.024950987913419</v>
+        <v>1.047134692866429</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047058873468172</v>
+        <v>1.033536914721989</v>
       </c>
       <c r="J5">
-        <v>1.021187950219928</v>
+        <v>1.035206428633012</v>
       </c>
       <c r="K5">
-        <v>1.032295794579483</v>
+        <v>1.040468587517239</v>
       </c>
       <c r="L5">
-        <v>1.017568160468992</v>
+        <v>1.032810457892201</v>
       </c>
       <c r="M5">
-        <v>1.034540029618706</v>
+        <v>1.049539652010974</v>
       </c>
       <c r="N5">
-        <v>1.010772461552509</v>
+        <v>1.015697333564818</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002548239740478</v>
+        <v>1.030800951796038</v>
       </c>
       <c r="D6">
-        <v>1.022874535849713</v>
+        <v>1.038082993156886</v>
       </c>
       <c r="E6">
-        <v>1.007990359335658</v>
+        <v>1.030410282608972</v>
       </c>
       <c r="F6">
-        <v>1.025186202190223</v>
+        <v>1.047187137101683</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047133077038622</v>
+        <v>1.033548262984467</v>
       </c>
       <c r="J6">
-        <v>1.021357355339773</v>
+        <v>1.03524373546377</v>
       </c>
       <c r="K6">
-        <v>1.032450044479711</v>
+        <v>1.040501353544441</v>
       </c>
       <c r="L6">
-        <v>1.017733784286392</v>
+        <v>1.032847620832164</v>
       </c>
       <c r="M6">
-        <v>1.034736169379905</v>
+        <v>1.049583366903653</v>
       </c>
       <c r="N6">
-        <v>1.010830118214407</v>
+        <v>1.015709866837221</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000810522129948</v>
+        <v>1.030430733170218</v>
       </c>
       <c r="D7">
-        <v>1.021542206485292</v>
+        <v>1.037797206305514</v>
       </c>
       <c r="E7">
-        <v>1.006573439519719</v>
+        <v>1.03009373954255</v>
       </c>
       <c r="F7">
-        <v>1.023562595681557</v>
+        <v>1.046826506024155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046619445275447</v>
+        <v>1.033470064511219</v>
       </c>
       <c r="J7">
-        <v>1.020187434261407</v>
+        <v>1.034987138377524</v>
       </c>
       <c r="K7">
-        <v>1.031384489963307</v>
+        <v>1.040275944781325</v>
       </c>
       <c r="L7">
-        <v>1.0165901960425</v>
+        <v>1.032592037442033</v>
       </c>
       <c r="M7">
-        <v>1.033381812132742</v>
+        <v>1.049282713250353</v>
       </c>
       <c r="N7">
-        <v>1.010431894766197</v>
+        <v>1.015623652942128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9933646205826445</v>
+        <v>1.02888258171915</v>
       </c>
       <c r="D8">
-        <v>1.015834984006516</v>
+        <v>1.036601355997819</v>
       </c>
       <c r="E8">
-        <v>1.000515394285005</v>
+        <v>1.028770766839494</v>
       </c>
       <c r="F8">
-        <v>1.016615480603058</v>
+        <v>1.045318756587515</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044385884177112</v>
+        <v>1.033139079567337</v>
       </c>
       <c r="J8">
-        <v>1.015167067746444</v>
+        <v>1.03391289823332</v>
       </c>
       <c r="K8">
-        <v>1.026804648769622</v>
+        <v>1.039331194226883</v>
       </c>
       <c r="L8">
-        <v>1.011688388750599</v>
+        <v>1.031522639867315</v>
       </c>
       <c r="M8">
-        <v>1.02757499163595</v>
+        <v>1.048024485352548</v>
       </c>
       <c r="N8">
-        <v>1.008721995592955</v>
+        <v>1.015262475788121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9794863720598854</v>
+        <v>1.026151796882035</v>
       </c>
       <c r="D9">
-        <v>1.005209956380351</v>
+        <v>1.034489154388153</v>
       </c>
       <c r="E9">
-        <v>0.9892801105228045</v>
+        <v>1.026439947457747</v>
       </c>
       <c r="F9">
-        <v>1.003710048838534</v>
+        <v>1.042660450603975</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040101212466578</v>
+        <v>1.032540274692272</v>
       </c>
       <c r="J9">
-        <v>1.005784912366523</v>
+        <v>1.032013465955649</v>
       </c>
       <c r="K9">
-        <v>1.018219067454893</v>
+        <v>1.037656668628225</v>
       </c>
       <c r="L9">
-        <v>1.002549538284528</v>
+        <v>1.0296340300203</v>
       </c>
       <c r="M9">
-        <v>1.016743218512195</v>
+        <v>1.045801453127023</v>
       </c>
       <c r="N9">
-        <v>1.005523038148575</v>
+        <v>1.01462294226343</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9696516116271078</v>
+        <v>1.024329319693108</v>
       </c>
       <c r="D10">
-        <v>0.9976955407887792</v>
+        <v>1.033077652422169</v>
       </c>
       <c r="E10">
-        <v>0.981361644202305</v>
+        <v>1.024886308782953</v>
       </c>
       <c r="F10">
-        <v>0.9945994633443954</v>
+        <v>1.040887203174093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036986921489103</v>
+        <v>1.032130596914006</v>
       </c>
       <c r="J10">
-        <v>0.9991232964405091</v>
+        <v>1.030742766288869</v>
       </c>
       <c r="K10">
-        <v>1.012106527988202</v>
+        <v>1.036533724796439</v>
       </c>
       <c r="L10">
-        <v>0.9960757765651432</v>
+        <v>1.028372090944785</v>
       </c>
       <c r="M10">
-        <v>1.009066915602435</v>
+        <v>1.044315430744241</v>
       </c>
       <c r="N10">
-        <v>1.003249882358432</v>
+        <v>1.014194493556303</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9652364670263514</v>
+        <v>1.023539678368352</v>
       </c>
       <c r="D11">
-        <v>0.9943272078497624</v>
+        <v>1.032465649436868</v>
       </c>
       <c r="E11">
-        <v>0.9778183721864592</v>
+        <v>1.024213611900726</v>
       </c>
       <c r="F11">
-        <v>0.9905190478268946</v>
+        <v>1.04011910492073</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035571403209277</v>
+        <v>1.031950715019117</v>
       </c>
       <c r="J11">
-        <v>0.9961305359274193</v>
+        <v>1.030191480485536</v>
       </c>
       <c r="K11">
-        <v>1.009356903560814</v>
+        <v>1.036045905061169</v>
       </c>
       <c r="L11">
-        <v>0.9931710859677916</v>
+        <v>1.02782496666098</v>
       </c>
       <c r="M11">
-        <v>1.00562200359527</v>
+        <v>1.043671005138318</v>
       </c>
       <c r="N11">
-        <v>1.002228360297007</v>
+        <v>1.01400847080193</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9635712047775058</v>
+        <v>1.023246293527671</v>
       </c>
       <c r="D12">
-        <v>0.9930576896486968</v>
+        <v>1.03223820124517</v>
       </c>
       <c r="E12">
-        <v>0.976483815277212</v>
+        <v>1.023963747091177</v>
       </c>
       <c r="F12">
-        <v>0.9889816088445293</v>
+        <v>1.039833756980762</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035034995684725</v>
+        <v>1.031883524668178</v>
       </c>
       <c r="J12">
-        <v>0.9950015196891557</v>
+        <v>1.029986547287091</v>
       </c>
       <c r="K12">
-        <v>1.008319113028174</v>
+        <v>1.035864469193859</v>
       </c>
       <c r="L12">
-        <v>0.9920758552214818</v>
+        <v>1.027621634677396</v>
       </c>
       <c r="M12">
-        <v>1.004322992748344</v>
+        <v>1.043431490122668</v>
       </c>
       <c r="N12">
-        <v>1.001842959059813</v>
+        <v>1.013939297977884</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9639295831838726</v>
+        <v>1.023309229088149</v>
       </c>
       <c r="D13">
-        <v>0.9933308567111099</v>
+        <v>1.03228699523555</v>
       </c>
       <c r="E13">
-        <v>0.9767709370653366</v>
+        <v>1.024017343742897</v>
       </c>
       <c r="F13">
-        <v>0.9893124054030059</v>
+        <v>1.0398949670083</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035150547010797</v>
+        <v>1.031897954165119</v>
       </c>
       <c r="J13">
-        <v>0.9952445026164666</v>
+        <v>1.030030513463241</v>
       </c>
       <c r="K13">
-        <v>1.008542484550518</v>
+        <v>1.035903398582807</v>
       </c>
       <c r="L13">
-        <v>0.9923115414571038</v>
+        <v>1.027665254876521</v>
       </c>
       <c r="M13">
-        <v>1.004602534772096</v>
+        <v>1.043482873562393</v>
       </c>
       <c r="N13">
-        <v>1.001925905061613</v>
+        <v>1.01395413921386</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.965099342382455</v>
+        <v>1.0235154286677</v>
       </c>
       <c r="D14">
-        <v>0.994222650911573</v>
+        <v>1.032446851013148</v>
       </c>
       <c r="E14">
-        <v>0.9777084406992691</v>
+        <v>1.024192957906726</v>
       </c>
       <c r="F14">
-        <v>0.9903924159707715</v>
+        <v>1.040095518837057</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03552728364975</v>
+        <v>1.031945168679226</v>
       </c>
       <c r="J14">
-        <v>0.9960375722719165</v>
+        <v>1.030174543936787</v>
       </c>
       <c r="K14">
-        <v>1.009271461353251</v>
+        <v>1.036030912373909</v>
       </c>
       <c r="L14">
-        <v>0.993080892775536</v>
+        <v>1.027808161337386</v>
       </c>
       <c r="M14">
-        <v>1.005515030616035</v>
+        <v>1.043651209751088</v>
       </c>
       <c r="N14">
-        <v>1.002196626802551</v>
+        <v>1.014002754500669</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9658166644068432</v>
+        <v>1.02364246477673</v>
       </c>
       <c r="D15">
-        <v>0.9947696440470912</v>
+        <v>1.032545327105116</v>
       </c>
       <c r="E15">
-        <v>0.9782835872287537</v>
+        <v>1.024301160187844</v>
       </c>
       <c r="F15">
-        <v>0.9910549132828208</v>
+        <v>1.040219079823135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035757978687655</v>
+        <v>1.031974209504479</v>
       </c>
       <c r="J15">
-        <v>0.9965238717114977</v>
+        <v>1.030263264481649</v>
       </c>
       <c r="K15">
-        <v>1.009718395545391</v>
+        <v>1.036109446279041</v>
       </c>
       <c r="L15">
-        <v>0.9935527226217753</v>
+        <v>1.027896196691475</v>
       </c>
       <c r="M15">
-        <v>1.006074637529626</v>
+        <v>1.0437549077636</v>
       </c>
       <c r="N15">
-        <v>1.002362625680151</v>
+        <v>1.014032697943887</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9699411847984907</v>
+        <v>1.024381714928959</v>
       </c>
       <c r="D16">
-        <v>0.9979165760715679</v>
+        <v>1.033118251837473</v>
       </c>
       <c r="E16">
-        <v>0.9815942849057239</v>
+        <v>1.024930954187304</v>
       </c>
       <c r="F16">
-        <v>0.99486729317684</v>
+        <v>1.040938173507044</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03707940688938</v>
+        <v>1.032142482622759</v>
       </c>
       <c r="J16">
-        <v>0.9993195432899049</v>
+        <v>1.03077933078438</v>
       </c>
       <c r="K16">
-        <v>1.012286760855744</v>
+        <v>1.03656606647214</v>
       </c>
       <c r="L16">
-        <v>0.9962663253672308</v>
+        <v>1.028408387021396</v>
       </c>
       <c r="M16">
-        <v>1.009292890490778</v>
+        <v>1.04435817864981</v>
       </c>
       <c r="N16">
-        <v>1.003316862305683</v>
+        <v>1.014206828677267</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9724852712189499</v>
+        <v>1.024845292441718</v>
       </c>
       <c r="D17">
-        <v>0.99985911139751</v>
+        <v>1.033477414046184</v>
       </c>
       <c r="E17">
-        <v>0.983639509545962</v>
+        <v>1.025326016981519</v>
       </c>
       <c r="F17">
-        <v>0.9972214553095161</v>
+        <v>1.041389168578105</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037889988790221</v>
+        <v>1.032247369391759</v>
       </c>
       <c r="J17">
-        <v>1.001043464857253</v>
+        <v>1.031102759723314</v>
       </c>
       <c r="K17">
-        <v>1.013869611352352</v>
+        <v>1.036852069260923</v>
       </c>
       <c r="L17">
-        <v>0.9979406100881724</v>
+        <v>1.028729483317361</v>
       </c>
       <c r="M17">
-        <v>1.011278378506042</v>
+        <v>1.04473633450075</v>
       </c>
       <c r="N17">
-        <v>1.003905212360118</v>
+        <v>1.014315921754683</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9739542082786109</v>
+        <v>1.025115641595198</v>
       </c>
       <c r="D18">
-        <v>1.000981191763878</v>
+        <v>1.033686828871238</v>
       </c>
       <c r="E18">
-        <v>0.9848214929966755</v>
+        <v>1.025556454255176</v>
       </c>
       <c r="F18">
-        <v>0.9985816312104047</v>
+        <v>1.041652200379871</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038356362095749</v>
+        <v>1.032308307966475</v>
       </c>
       <c r="J18">
-        <v>1.00203863625845</v>
+        <v>1.031291307727646</v>
       </c>
       <c r="K18">
-        <v>1.014783010026373</v>
+        <v>1.03701873768962</v>
       </c>
       <c r="L18">
-        <v>0.9989074738029819</v>
+        <v>1.028916706240148</v>
       </c>
       <c r="M18">
-        <v>1.01242489254322</v>
+        <v>1.044956813085657</v>
       </c>
       <c r="N18">
-        <v>1.004244821494368</v>
+        <v>1.014379505522879</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9744525864260141</v>
+        <v>1.025207815636188</v>
       </c>
       <c r="D19">
-        <v>1.001361965371474</v>
+        <v>1.033758220639089</v>
       </c>
       <c r="E19">
-        <v>0.9852226948068878</v>
+        <v>1.025635028092171</v>
       </c>
       <c r="F19">
-        <v>0.9990432580905844</v>
+        <v>1.041741883060364</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038514309448496</v>
+        <v>1.032329045728867</v>
       </c>
       <c r="J19">
-        <v>1.00237623827759</v>
+        <v>1.031355580353016</v>
       </c>
       <c r="K19">
-        <v>1.015092813412939</v>
+        <v>1.037075541533715</v>
       </c>
       <c r="L19">
-        <v>0.999235531207155</v>
+        <v>1.02898053306596</v>
       </c>
       <c r="M19">
-        <v>1.012813894381511</v>
+        <v>1.045031974791673</v>
       </c>
       <c r="N19">
-        <v>1.004360025302151</v>
+        <v>1.014401177748542</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9722138769421593</v>
+        <v>1.024795559920184</v>
       </c>
       <c r="D20">
-        <v>0.9996518382167633</v>
+        <v>1.033438887458016</v>
       </c>
       <c r="E20">
-        <v>0.9834212185600076</v>
+        <v>1.025283630095133</v>
       </c>
       <c r="F20">
-        <v>0.9969702271943208</v>
+        <v>1.041340783775071</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037803689467395</v>
+        <v>1.032236140871683</v>
       </c>
       <c r="J20">
-        <v>1.000859583956976</v>
+        <v>1.031068069483301</v>
       </c>
       <c r="K20">
-        <v>1.013700812393664</v>
+        <v>1.036821399614017</v>
       </c>
       <c r="L20">
-        <v>0.9977619876479449</v>
+        <v>1.028695039673923</v>
       </c>
       <c r="M20">
-        <v>1.01106656153914</v>
+        <v>1.044695771619479</v>
       </c>
       <c r="N20">
-        <v>1.003842459318457</v>
+        <v>1.014304222106537</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9647555902490783</v>
+        <v>1.023454710171873</v>
       </c>
       <c r="D21">
-        <v>0.9939605567065529</v>
+        <v>1.032399780874093</v>
       </c>
       <c r="E21">
-        <v>0.9774328883450769</v>
+        <v>1.024141243789769</v>
       </c>
       <c r="F21">
-        <v>0.9900749935501391</v>
+        <v>1.040036462494355</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035416642002368</v>
+        <v>1.031931275514014</v>
       </c>
       <c r="J21">
-        <v>0.9958045220253566</v>
+        <v>1.03013213500902</v>
       </c>
       <c r="K21">
-        <v>1.009057258717077</v>
+        <v>1.035993369314836</v>
       </c>
       <c r="L21">
-        <v>0.9928547968570586</v>
+        <v>1.027766081871805</v>
       </c>
       <c r="M21">
-        <v>1.005246869850643</v>
+        <v>1.043601642997253</v>
       </c>
       <c r="N21">
-        <v>1.002117073732143</v>
+        <v>1.013988440602461</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9599190045795547</v>
+        <v>1.022611218699496</v>
       </c>
       <c r="D22">
-        <v>0.9902752847488788</v>
+        <v>1.031745741063157</v>
       </c>
       <c r="E22">
-        <v>0.9735604761737761</v>
+        <v>1.023423007200635</v>
       </c>
       <c r="F22">
-        <v>0.9856127951722637</v>
+        <v>1.039216139940756</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033854046650204</v>
+        <v>1.031737429367099</v>
       </c>
       <c r="J22">
-        <v>0.9925250657070913</v>
+        <v>1.029542743161602</v>
       </c>
       <c r="K22">
-        <v>1.006041883492085</v>
+        <v>1.035471376959309</v>
       </c>
       <c r="L22">
-        <v>0.9896745530045929</v>
+        <v>1.027181397368105</v>
       </c>
       <c r="M22">
-        <v>1.001474756675357</v>
+        <v>1.042912871814952</v>
       </c>
       <c r="N22">
-        <v>1.000997548841623</v>
+        <v>1.013789458152906</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9624975597579309</v>
+        <v>1.023058412527923</v>
       </c>
       <c r="D23">
-        <v>0.9922394707223298</v>
+        <v>1.032092527740149</v>
       </c>
       <c r="E23">
-        <v>0.9756239263181156</v>
+        <v>1.023803755808717</v>
       </c>
       <c r="F23">
-        <v>0.9879908356984071</v>
+        <v>1.039651032053776</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034688461537751</v>
+        <v>1.031840396216724</v>
       </c>
       <c r="J23">
-        <v>0.9942735538379333</v>
+        <v>1.02985527973768</v>
       </c>
       <c r="K23">
-        <v>1.007649831968758</v>
+        <v>1.035748225787004</v>
       </c>
       <c r="L23">
-        <v>0.9913698329307441</v>
+        <v>1.027491408035784</v>
       </c>
       <c r="M23">
-        <v>1.003485584302343</v>
+        <v>1.043278083340476</v>
       </c>
       <c r="N23">
-        <v>1.001594452690182</v>
+        <v>1.013894984149096</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9723365545141455</v>
+        <v>1.024818032053579</v>
       </c>
       <c r="D24">
-        <v>0.9997455298528358</v>
+        <v>1.03345629620728</v>
       </c>
       <c r="E24">
-        <v>0.9835198886445226</v>
+        <v>1.025302782892861</v>
       </c>
       <c r="F24">
-        <v>0.9970837863315787</v>
+        <v>1.0413626468653</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037842704232088</v>
+        <v>1.032241215298523</v>
       </c>
       <c r="J24">
-        <v>1.00094270376314</v>
+        <v>1.03108374482671</v>
       </c>
       <c r="K24">
-        <v>1.013777115746293</v>
+        <v>1.036835258377539</v>
       </c>
       <c r="L24">
-        <v>0.9978427293948224</v>
+        <v>1.028710603481245</v>
       </c>
       <c r="M24">
-        <v>1.01116230822672</v>
+        <v>1.044714100527986</v>
       </c>
       <c r="N24">
-        <v>1.003870825708031</v>
+        <v>1.014309508823449</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9831711582815548</v>
+        <v>1.026858106600247</v>
       </c>
       <c r="D25">
-        <v>1.008028908931419</v>
+        <v>1.035035800270202</v>
       </c>
       <c r="E25">
-        <v>0.9922561371191886</v>
+        <v>1.027042474228031</v>
       </c>
       <c r="F25">
-        <v>1.007131002890187</v>
+        <v>1.043347865700439</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041252518932087</v>
+        <v>1.032696925690156</v>
       </c>
       <c r="J25">
-        <v>1.008278463173721</v>
+        <v>1.032505288429396</v>
       </c>
       <c r="K25">
-        <v>1.020503852009082</v>
+        <v>1.038090733154679</v>
       </c>
       <c r="L25">
-        <v>1.004975867960057</v>
+        <v>1.030122782687475</v>
       </c>
       <c r="M25">
-        <v>1.019619618701153</v>
+        <v>1.046376861601671</v>
       </c>
       <c r="N25">
-        <v>1.006373592403926</v>
+        <v>1.014788644931483</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_207/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028483841947728</v>
+        <v>0.9913988011071377</v>
       </c>
       <c r="D2">
-        <v>1.036293159674117</v>
+        <v>1.014328816108557</v>
       </c>
       <c r="E2">
-        <v>1.028430210264438</v>
+        <v>0.9989195356961198</v>
       </c>
       <c r="F2">
-        <v>1.044930503471274</v>
+        <v>1.014784023935405</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033052814160182</v>
+        <v>1.043787987094051</v>
       </c>
       <c r="J2">
-        <v>1.033635906682086</v>
+        <v>1.013839851724791</v>
       </c>
       <c r="K2">
-        <v>1.039087315974349</v>
+        <v>1.025592072827054</v>
       </c>
       <c r="L2">
-        <v>1.031247050133502</v>
+        <v>1.010393943654429</v>
       </c>
       <c r="M2">
-        <v>1.047700169207753</v>
+        <v>1.026041165563955</v>
       </c>
       <c r="N2">
-        <v>1.015169284544041</v>
+        <v>1.008269707646672</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029663487152199</v>
+        <v>0.997157023075035</v>
       </c>
       <c r="D3">
-        <v>1.037204709419734</v>
+        <v>1.018741432723586</v>
       </c>
       <c r="E3">
-        <v>1.029437944682024</v>
+        <v>1.003598250209357</v>
       </c>
       <c r="F3">
-        <v>1.046079220387699</v>
+        <v>1.020151839474999</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033306826363643</v>
+        <v>1.045529885392799</v>
       </c>
       <c r="J3">
-        <v>1.034455000956907</v>
+        <v>1.017725491696552</v>
       </c>
       <c r="K3">
-        <v>1.039808166652206</v>
+        <v>1.029140000343078</v>
       </c>
       <c r="L3">
-        <v>1.032062179405888</v>
+        <v>1.014185296856963</v>
       </c>
       <c r="M3">
-        <v>1.048659344620985</v>
+        <v>1.030533206591827</v>
       </c>
       <c r="N3">
-        <v>1.015444788169815</v>
+        <v>1.009593573953158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030426448082379</v>
+        <v>1.000790313673577</v>
       </c>
       <c r="D4">
-        <v>1.037793898047136</v>
+        <v>1.021526713036807</v>
       </c>
       <c r="E4">
-        <v>1.030090076115165</v>
+        <v>1.006556968682178</v>
       </c>
       <c r="F4">
-        <v>1.046822332074717</v>
+        <v>1.023543719350444</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033469157221069</v>
+        <v>1.046613454225514</v>
       </c>
       <c r="J4">
-        <v>1.03498416772835</v>
+        <v>1.020173824729309</v>
       </c>
       <c r="K4">
-        <v>1.040273334609664</v>
+        <v>1.031372090485758</v>
       </c>
       <c r="L4">
-        <v>1.032589078856522</v>
+        <v>1.016576895826258</v>
       </c>
       <c r="M4">
-        <v>1.049279232802774</v>
+        <v>1.033366059743688</v>
       </c>
       <c r="N4">
-        <v>1.015622654701629</v>
+        <v>1.010427261700432</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030747115131232</v>
+        <v>1.002296551361481</v>
       </c>
       <c r="D5">
-        <v>1.038041438964668</v>
+        <v>1.022681557249066</v>
       </c>
       <c r="E5">
-        <v>1.03036424718084</v>
+        <v>1.007785061375145</v>
       </c>
       <c r="F5">
-        <v>1.047134692866429</v>
+        <v>1.024950987913418</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033536914721989</v>
+        <v>1.047058873468172</v>
       </c>
       <c r="J5">
-        <v>1.035206428633012</v>
+        <v>1.021187950219927</v>
       </c>
       <c r="K5">
-        <v>1.040468587517239</v>
+        <v>1.032295794579483</v>
       </c>
       <c r="L5">
-        <v>1.032810457892201</v>
+        <v>1.017568160468992</v>
       </c>
       <c r="M5">
-        <v>1.049539652010974</v>
+        <v>1.034540029618705</v>
       </c>
       <c r="N5">
-        <v>1.015697333564818</v>
+        <v>1.010772461552509</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030800951796038</v>
+        <v>1.002548239740479</v>
       </c>
       <c r="D6">
-        <v>1.038082993156886</v>
+        <v>1.022874535849713</v>
       </c>
       <c r="E6">
-        <v>1.030410282608972</v>
+        <v>1.007990359335659</v>
       </c>
       <c r="F6">
-        <v>1.047187137101683</v>
+        <v>1.025186202190224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033548262984467</v>
+        <v>1.047133077038622</v>
       </c>
       <c r="J6">
-        <v>1.03524373546377</v>
+        <v>1.021357355339774</v>
       </c>
       <c r="K6">
-        <v>1.040501353544441</v>
+        <v>1.032450044479712</v>
       </c>
       <c r="L6">
-        <v>1.032847620832164</v>
+        <v>1.017733784286393</v>
       </c>
       <c r="M6">
-        <v>1.049583366903653</v>
+        <v>1.034736169379906</v>
       </c>
       <c r="N6">
-        <v>1.015709866837221</v>
+        <v>1.010830118214407</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030430733170218</v>
+        <v>1.000810522129948</v>
       </c>
       <c r="D7">
-        <v>1.037797206305514</v>
+        <v>1.021542206485292</v>
       </c>
       <c r="E7">
-        <v>1.03009373954255</v>
+        <v>1.006573439519719</v>
       </c>
       <c r="F7">
-        <v>1.046826506024155</v>
+        <v>1.023562595681557</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033470064511219</v>
+        <v>1.046619445275447</v>
       </c>
       <c r="J7">
-        <v>1.034987138377524</v>
+        <v>1.020187434261407</v>
       </c>
       <c r="K7">
-        <v>1.040275944781325</v>
+        <v>1.031384489963306</v>
       </c>
       <c r="L7">
-        <v>1.032592037442033</v>
+        <v>1.0165901960425</v>
       </c>
       <c r="M7">
-        <v>1.049282713250353</v>
+        <v>1.033381812132742</v>
       </c>
       <c r="N7">
-        <v>1.015623652942128</v>
+        <v>1.010431894766197</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02888258171915</v>
+        <v>0.9933646205826454</v>
       </c>
       <c r="D8">
-        <v>1.036601355997819</v>
+        <v>1.015834984006517</v>
       </c>
       <c r="E8">
-        <v>1.028770766839494</v>
+        <v>1.000515394285005</v>
       </c>
       <c r="F8">
-        <v>1.045318756587515</v>
+        <v>1.016615480603059</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033139079567337</v>
+        <v>1.044385884177113</v>
       </c>
       <c r="J8">
-        <v>1.03391289823332</v>
+        <v>1.015167067746445</v>
       </c>
       <c r="K8">
-        <v>1.039331194226883</v>
+        <v>1.026804648769623</v>
       </c>
       <c r="L8">
-        <v>1.031522639867315</v>
+        <v>1.0116883887506</v>
       </c>
       <c r="M8">
-        <v>1.048024485352548</v>
+        <v>1.02757499163595</v>
       </c>
       <c r="N8">
-        <v>1.015262475788121</v>
+        <v>1.008721995592955</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026151796882035</v>
+        <v>0.9794863720598853</v>
       </c>
       <c r="D9">
-        <v>1.034489154388153</v>
+        <v>1.00520995638035</v>
       </c>
       <c r="E9">
-        <v>1.026439947457747</v>
+        <v>0.989280110522804</v>
       </c>
       <c r="F9">
-        <v>1.042660450603975</v>
+        <v>1.003710048838533</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032540274692272</v>
+        <v>1.040101212466578</v>
       </c>
       <c r="J9">
-        <v>1.032013465955649</v>
+        <v>1.005784912366523</v>
       </c>
       <c r="K9">
-        <v>1.037656668628225</v>
+        <v>1.018219067454892</v>
       </c>
       <c r="L9">
-        <v>1.0296340300203</v>
+        <v>1.002549538284527</v>
       </c>
       <c r="M9">
-        <v>1.045801453127023</v>
+        <v>1.016743218512195</v>
       </c>
       <c r="N9">
-        <v>1.01462294226343</v>
+        <v>1.005523038148575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024329319693108</v>
+        <v>0.9696516116271073</v>
       </c>
       <c r="D10">
-        <v>1.033077652422169</v>
+        <v>0.9976955407887785</v>
       </c>
       <c r="E10">
-        <v>1.024886308782953</v>
+        <v>0.9813616442023045</v>
       </c>
       <c r="F10">
-        <v>1.040887203174093</v>
+        <v>0.9945994633443951</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032130596914006</v>
+        <v>1.036986921489103</v>
       </c>
       <c r="J10">
-        <v>1.030742766288869</v>
+        <v>0.9991232964405086</v>
       </c>
       <c r="K10">
-        <v>1.036533724796439</v>
+        <v>1.012106527988201</v>
       </c>
       <c r="L10">
-        <v>1.028372090944785</v>
+        <v>0.9960757765651428</v>
       </c>
       <c r="M10">
-        <v>1.044315430744241</v>
+        <v>1.009066915602435</v>
       </c>
       <c r="N10">
-        <v>1.014194493556303</v>
+        <v>1.003249882358432</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023539678368352</v>
+        <v>0.965236467026351</v>
       </c>
       <c r="D11">
-        <v>1.032465649436868</v>
+        <v>0.994327207849762</v>
       </c>
       <c r="E11">
-        <v>1.024213611900726</v>
+        <v>0.9778183721864585</v>
       </c>
       <c r="F11">
-        <v>1.04011910492073</v>
+        <v>0.9905190478268944</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031950715019117</v>
+        <v>1.035571403209277</v>
       </c>
       <c r="J11">
-        <v>1.030191480485536</v>
+        <v>0.9961305359274186</v>
       </c>
       <c r="K11">
-        <v>1.036045905061169</v>
+        <v>1.009356903560813</v>
       </c>
       <c r="L11">
-        <v>1.02782496666098</v>
+        <v>0.993171085967791</v>
       </c>
       <c r="M11">
-        <v>1.043671005138318</v>
+        <v>1.005622003595269</v>
       </c>
       <c r="N11">
-        <v>1.01400847080193</v>
+        <v>1.002228360297006</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023246293527671</v>
+        <v>0.9635712047775046</v>
       </c>
       <c r="D12">
-        <v>1.03223820124517</v>
+        <v>0.993057689648696</v>
       </c>
       <c r="E12">
-        <v>1.023963747091177</v>
+        <v>0.9764838152772105</v>
       </c>
       <c r="F12">
-        <v>1.039833756980762</v>
+        <v>0.9889816088445286</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031883524668178</v>
+        <v>1.035034995684725</v>
       </c>
       <c r="J12">
-        <v>1.029986547287091</v>
+        <v>0.9950015196891545</v>
       </c>
       <c r="K12">
-        <v>1.035864469193859</v>
+        <v>1.008319113028173</v>
       </c>
       <c r="L12">
-        <v>1.027621634677396</v>
+        <v>0.9920758552214805</v>
       </c>
       <c r="M12">
-        <v>1.043431490122668</v>
+        <v>1.004322992748343</v>
       </c>
       <c r="N12">
-        <v>1.013939297977884</v>
+        <v>1.001842959059812</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023309229088149</v>
+        <v>0.963929583183872</v>
       </c>
       <c r="D13">
-        <v>1.03228699523555</v>
+        <v>0.9933308567111094</v>
       </c>
       <c r="E13">
-        <v>1.024017343742897</v>
+        <v>0.9767709370653364</v>
       </c>
       <c r="F13">
-        <v>1.0398949670083</v>
+        <v>0.9893124054030057</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031897954165119</v>
+        <v>1.035150547010797</v>
       </c>
       <c r="J13">
-        <v>1.030030513463241</v>
+        <v>0.9952445026164662</v>
       </c>
       <c r="K13">
-        <v>1.035903398582807</v>
+        <v>1.008542484550517</v>
       </c>
       <c r="L13">
-        <v>1.027665254876521</v>
+        <v>0.9923115414571032</v>
       </c>
       <c r="M13">
-        <v>1.043482873562393</v>
+        <v>1.004602534772095</v>
       </c>
       <c r="N13">
-        <v>1.01395413921386</v>
+        <v>1.001925905061613</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0235154286677</v>
+        <v>0.9650993423824545</v>
       </c>
       <c r="D14">
-        <v>1.032446851013148</v>
+        <v>0.9942226509115727</v>
       </c>
       <c r="E14">
-        <v>1.024192957906726</v>
+        <v>0.977708440699269</v>
       </c>
       <c r="F14">
-        <v>1.040095518837057</v>
+        <v>0.9903924159707713</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031945168679226</v>
+        <v>1.035527283649751</v>
       </c>
       <c r="J14">
-        <v>1.030174543936787</v>
+        <v>0.9960375722719161</v>
       </c>
       <c r="K14">
-        <v>1.036030912373909</v>
+        <v>1.009271461353251</v>
       </c>
       <c r="L14">
-        <v>1.027808161337386</v>
+        <v>0.993080892775536</v>
       </c>
       <c r="M14">
-        <v>1.043651209751088</v>
+        <v>1.005515030616035</v>
       </c>
       <c r="N14">
-        <v>1.014002754500669</v>
+        <v>1.002196626802551</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02364246477673</v>
+        <v>0.9658166644068442</v>
       </c>
       <c r="D15">
-        <v>1.032545327105116</v>
+        <v>0.9947696440470921</v>
       </c>
       <c r="E15">
-        <v>1.024301160187844</v>
+        <v>0.9782835872287544</v>
       </c>
       <c r="F15">
-        <v>1.040219079823135</v>
+        <v>0.9910549132828218</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031974209504479</v>
+        <v>1.035757978687655</v>
       </c>
       <c r="J15">
-        <v>1.030263264481649</v>
+        <v>0.9965238717114985</v>
       </c>
       <c r="K15">
-        <v>1.036109446279041</v>
+        <v>1.009718395545392</v>
       </c>
       <c r="L15">
-        <v>1.027896196691475</v>
+        <v>0.9935527226217761</v>
       </c>
       <c r="M15">
-        <v>1.0437549077636</v>
+        <v>1.006074637529627</v>
       </c>
       <c r="N15">
-        <v>1.014032697943887</v>
+        <v>1.002362625680151</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024381714928959</v>
+        <v>0.9699411847984921</v>
       </c>
       <c r="D16">
-        <v>1.033118251837473</v>
+        <v>0.9979165760715695</v>
       </c>
       <c r="E16">
-        <v>1.024930954187304</v>
+        <v>0.9815942849057252</v>
       </c>
       <c r="F16">
-        <v>1.040938173507044</v>
+        <v>0.9948672931768412</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032142482622759</v>
+        <v>1.03707940688938</v>
       </c>
       <c r="J16">
-        <v>1.03077933078438</v>
+        <v>0.9993195432899062</v>
       </c>
       <c r="K16">
-        <v>1.03656606647214</v>
+        <v>1.012286760855745</v>
       </c>
       <c r="L16">
-        <v>1.028408387021396</v>
+        <v>0.996266325367232</v>
       </c>
       <c r="M16">
-        <v>1.04435817864981</v>
+        <v>1.009292890490779</v>
       </c>
       <c r="N16">
-        <v>1.014206828677267</v>
+        <v>1.003316862305683</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024845292441718</v>
+        <v>0.972485271218949</v>
       </c>
       <c r="D17">
-        <v>1.033477414046184</v>
+        <v>0.9998591113975095</v>
       </c>
       <c r="E17">
-        <v>1.025326016981519</v>
+        <v>0.9836395095459614</v>
       </c>
       <c r="F17">
-        <v>1.041389168578105</v>
+        <v>0.9972214553095156</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032247369391759</v>
+        <v>1.037889988790221</v>
       </c>
       <c r="J17">
-        <v>1.031102759723314</v>
+        <v>1.001043464857252</v>
       </c>
       <c r="K17">
-        <v>1.036852069260923</v>
+        <v>1.013869611352352</v>
       </c>
       <c r="L17">
-        <v>1.028729483317361</v>
+        <v>0.9979406100881719</v>
       </c>
       <c r="M17">
-        <v>1.04473633450075</v>
+        <v>1.011278378506041</v>
       </c>
       <c r="N17">
-        <v>1.014315921754683</v>
+        <v>1.003905212360118</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025115641595198</v>
+        <v>0.9739542082786106</v>
       </c>
       <c r="D18">
-        <v>1.033686828871238</v>
+        <v>1.000981191763878</v>
       </c>
       <c r="E18">
-        <v>1.025556454255176</v>
+        <v>0.9848214929966753</v>
       </c>
       <c r="F18">
-        <v>1.041652200379871</v>
+        <v>0.9985816312104041</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032308307966475</v>
+        <v>1.038356362095748</v>
       </c>
       <c r="J18">
-        <v>1.031291307727646</v>
+        <v>1.00203863625845</v>
       </c>
       <c r="K18">
-        <v>1.03701873768962</v>
+        <v>1.014783010026373</v>
       </c>
       <c r="L18">
-        <v>1.028916706240148</v>
+        <v>0.9989074738029815</v>
       </c>
       <c r="M18">
-        <v>1.044956813085657</v>
+        <v>1.012424892543219</v>
       </c>
       <c r="N18">
-        <v>1.014379505522879</v>
+        <v>1.004244821494368</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025207815636188</v>
+        <v>0.9744525864260135</v>
       </c>
       <c r="D19">
-        <v>1.033758220639089</v>
+        <v>1.001361965371473</v>
       </c>
       <c r="E19">
-        <v>1.025635028092171</v>
+        <v>0.9852226948068874</v>
       </c>
       <c r="F19">
-        <v>1.041741883060364</v>
+        <v>0.999043258090584</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032329045728867</v>
+        <v>1.038514309448496</v>
       </c>
       <c r="J19">
-        <v>1.031355580353016</v>
+        <v>1.002376238277589</v>
       </c>
       <c r="K19">
-        <v>1.037075541533715</v>
+        <v>1.015092813412939</v>
       </c>
       <c r="L19">
-        <v>1.02898053306596</v>
+        <v>0.9992355312071546</v>
       </c>
       <c r="M19">
-        <v>1.045031974791673</v>
+        <v>1.012813894381511</v>
       </c>
       <c r="N19">
-        <v>1.014401177748542</v>
+        <v>1.00436002530215</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024795559920184</v>
+        <v>0.972213876942159</v>
       </c>
       <c r="D20">
-        <v>1.033438887458016</v>
+        <v>0.999651838216763</v>
       </c>
       <c r="E20">
-        <v>1.025283630095133</v>
+        <v>0.9834212185600071</v>
       </c>
       <c r="F20">
-        <v>1.041340783775071</v>
+        <v>0.99697022719432</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032236140871683</v>
+        <v>1.037803689467395</v>
       </c>
       <c r="J20">
-        <v>1.031068069483301</v>
+        <v>1.000859583956976</v>
       </c>
       <c r="K20">
-        <v>1.036821399614017</v>
+        <v>1.013700812393663</v>
       </c>
       <c r="L20">
-        <v>1.028695039673923</v>
+        <v>0.9977619876479444</v>
       </c>
       <c r="M20">
-        <v>1.044695771619479</v>
+        <v>1.011066561539139</v>
       </c>
       <c r="N20">
-        <v>1.014304222106537</v>
+        <v>1.003842459318457</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023454710171873</v>
+        <v>0.9647555902490788</v>
       </c>
       <c r="D21">
-        <v>1.032399780874093</v>
+        <v>0.993960556706553</v>
       </c>
       <c r="E21">
-        <v>1.024141243789769</v>
+        <v>0.977432888345077</v>
       </c>
       <c r="F21">
-        <v>1.040036462494355</v>
+        <v>0.9900749935501393</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031931275514014</v>
+        <v>1.035416642002368</v>
       </c>
       <c r="J21">
-        <v>1.03013213500902</v>
+        <v>0.9958045220253569</v>
       </c>
       <c r="K21">
-        <v>1.035993369314836</v>
+        <v>1.009057258717077</v>
       </c>
       <c r="L21">
-        <v>1.027766081871805</v>
+        <v>0.9928547968570587</v>
       </c>
       <c r="M21">
-        <v>1.043601642997253</v>
+        <v>1.005246869850643</v>
       </c>
       <c r="N21">
-        <v>1.013988440602461</v>
+        <v>1.002117073732143</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022611218699496</v>
+        <v>0.9599190045795543</v>
       </c>
       <c r="D22">
-        <v>1.031745741063157</v>
+        <v>0.9902752847488786</v>
       </c>
       <c r="E22">
-        <v>1.023423007200635</v>
+        <v>0.9735604761737759</v>
       </c>
       <c r="F22">
-        <v>1.039216139940756</v>
+        <v>0.9856127951722635</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031737429367099</v>
+        <v>1.033854046650204</v>
       </c>
       <c r="J22">
-        <v>1.029542743161602</v>
+        <v>0.9925250657070909</v>
       </c>
       <c r="K22">
-        <v>1.035471376959309</v>
+        <v>1.006041883492085</v>
       </c>
       <c r="L22">
-        <v>1.027181397368105</v>
+        <v>0.9896745530045927</v>
       </c>
       <c r="M22">
-        <v>1.042912871814952</v>
+        <v>1.001474756675357</v>
       </c>
       <c r="N22">
-        <v>1.013789458152906</v>
+        <v>1.000997548841623</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023058412527923</v>
+        <v>0.9624975597579291</v>
       </c>
       <c r="D23">
-        <v>1.032092527740149</v>
+        <v>0.992239470722328</v>
       </c>
       <c r="E23">
-        <v>1.023803755808717</v>
+        <v>0.9756239263181138</v>
       </c>
       <c r="F23">
-        <v>1.039651032053776</v>
+        <v>0.9879908356984058</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031840396216724</v>
+        <v>1.03468846153775</v>
       </c>
       <c r="J23">
-        <v>1.02985527973768</v>
+        <v>0.9942735538379314</v>
       </c>
       <c r="K23">
-        <v>1.035748225787004</v>
+        <v>1.007649831968756</v>
       </c>
       <c r="L23">
-        <v>1.027491408035784</v>
+        <v>0.9913698329307423</v>
       </c>
       <c r="M23">
-        <v>1.043278083340476</v>
+        <v>1.003485584302342</v>
       </c>
       <c r="N23">
-        <v>1.013894984149096</v>
+        <v>1.001594452690181</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024818032053579</v>
+        <v>0.9723365545141437</v>
       </c>
       <c r="D24">
-        <v>1.03345629620728</v>
+        <v>0.9997455298528342</v>
       </c>
       <c r="E24">
-        <v>1.025302782892861</v>
+        <v>0.983519888644521</v>
       </c>
       <c r="F24">
-        <v>1.0413626468653</v>
+        <v>0.9970837863315766</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032241215298523</v>
+        <v>1.037842704232087</v>
       </c>
       <c r="J24">
-        <v>1.03108374482671</v>
+        <v>1.000942703763138</v>
       </c>
       <c r="K24">
-        <v>1.036835258377539</v>
+        <v>1.013777115746291</v>
       </c>
       <c r="L24">
-        <v>1.028710603481245</v>
+        <v>0.997842729394821</v>
       </c>
       <c r="M24">
-        <v>1.044714100527986</v>
+        <v>1.011162308226718</v>
       </c>
       <c r="N24">
-        <v>1.014309508823449</v>
+        <v>1.00387082570803</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026858106600247</v>
+        <v>0.9831711582815538</v>
       </c>
       <c r="D25">
-        <v>1.035035800270202</v>
+        <v>1.008028908931419</v>
       </c>
       <c r="E25">
-        <v>1.027042474228031</v>
+        <v>0.9922561371191877</v>
       </c>
       <c r="F25">
-        <v>1.043347865700439</v>
+        <v>1.007131002890186</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032696925690156</v>
+        <v>1.041252518932086</v>
       </c>
       <c r="J25">
-        <v>1.032505288429396</v>
+        <v>1.00827846317372</v>
       </c>
       <c r="K25">
-        <v>1.038090733154679</v>
+        <v>1.020503852009082</v>
       </c>
       <c r="L25">
-        <v>1.030122782687475</v>
+        <v>1.004975867960056</v>
       </c>
       <c r="M25">
-        <v>1.046376861601671</v>
+        <v>1.019619618701152</v>
       </c>
       <c r="N25">
-        <v>1.014788644931483</v>
+        <v>1.006373592403926</v>
       </c>
     </row>
   </sheetData>
